--- a/result/结果记录与备注.xlsx
+++ b/result/结果记录与备注.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>数据</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>0m21</t>
+  </si>
+  <si>
+    <t>自适应（0.05包围盒）</t>
+  </si>
+  <si>
+    <t>18m43s</t>
+  </si>
+  <si>
+    <t>50m37s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4env0.02.csv</t>
+  </si>
+  <si>
+    <t>0s</t>
+  </si>
+  <si>
+    <t>18m41s</t>
   </si>
   <si>
     <t>0m3s</t>
@@ -1050,10 +1068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1238,10 +1256,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="1">
         <v>150089</v>
       </c>
@@ -1251,29 +1295,29 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
-        <v>30000</v>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="1">
         <v>150089</v>
       </c>
@@ -1283,58 +1327,29 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
-        <v>10000</v>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I8" s="1">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1">
-        <v>164</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
       <c r="B10" s="1">
         <v>150089</v>
       </c>
@@ -1345,22 +1360,28 @@
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="1">
         <v>150089</v>
       </c>
@@ -1371,22 +1392,28 @@
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="1">
         <v>150089</v>
       </c>
@@ -1397,19 +1424,22 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -1423,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -1435,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -1449,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -1461,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1475,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -1487,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1495,16 +1525,16 @@
         <v>150089</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1513,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -1521,16 +1551,16 @@
         <v>150089</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1539,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1547,16 +1577,16 @@
         <v>150089</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1565,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1579,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>21</v>
@@ -1591,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1602,10 +1632,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>21</v>
@@ -1617,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -1631,10 +1661,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1643,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -1657,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1669,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -1680,13 +1710,13 @@
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
         <v>10000</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1695,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -1709,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
@@ -1721,17 +1751,86 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28"/>
@@ -1775,12 +1874,21 @@
     <row r="41" spans="2:2">
       <c r="B41"/>
     </row>
+    <row r="42" spans="2:2">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25:C47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28:C50">
       <formula1>"经纬度,墨卡托"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F3 G3 F4:G4 F5:G5 F6:G6 F11:G11 F12:G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F19:G19 F20:G20 F21:G21 F22:G22 F23:G23 F24:G24 F7:G10 F25:G45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F3 G3 F4:G4 F5:G5 F6:G6 F7:G7 F8:G8 F9:G9 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F19:G19 F20:G20 F21:G21 F22:G22 F23:G23 F24:G24 F25:G25 F26:G26 F27:G27 F10:G13 F28:G48">
       <formula1>"欧式距离,Haversine "</formula1>
     </dataValidation>
   </dataValidations>

--- a/result/结果记录与备注.xlsx
+++ b/result/结果记录与备注.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
   <si>
     <t>数据</t>
   </si>
@@ -62,6 +62,9 @@
     <t>结果文件名</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>20180430-8-16</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\hv_dbscan1new20180430_08_16min4epszsy.csv</t>
   </si>
   <si>
+    <t>读入点则计算参数</t>
+  </si>
+  <si>
     <t>墨卡托</t>
   </si>
   <si>
@@ -116,16 +122,28 @@
     <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4env0.02.csv</t>
   </si>
   <si>
-    <t>0s</t>
-  </si>
-  <si>
     <t>18m41s</t>
   </si>
   <si>
+    <t>20180401-0407</t>
+  </si>
+  <si>
+    <t>1m34s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\hv_hv_DBSCANpro20180401_0407_min4env1500.csv</t>
+  </si>
+  <si>
+    <t>调用增量DBSCAN时再计算参数</t>
+  </si>
+  <si>
     <t>0m3s</t>
   </si>
   <si>
     <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4eps30000.csv</t>
+  </si>
+  <si>
+    <t>固定参数</t>
   </si>
   <si>
     <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180430\ec_dbscan1new20180430_08_16min4eps10000.csv</t>
@@ -1068,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1084,10 +1102,11 @@
     <col min="6" max="7" width="15.75" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="101.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,28 +1140,31 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>150089</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -1151,33 +1173,36 @@
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1186,33 +1211,36 @@
         <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1221,30 +1249,33 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>150089</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -1253,56 +1284,68 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="1">
         <v>150089</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
       <c r="B7" s="1">
         <v>150089</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1311,143 +1354,132 @@
         <v>236</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="1">
         <v>150089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1806885</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5908</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B12" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>414</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1">
-        <v>414</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1">
-        <v>164</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1">
-        <v>164</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
       <c r="B13" s="1">
         <v>150089</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1456,24 +1488,33 @@
         <v>10000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>36</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="1">
         <v>150089</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -1482,361 +1523,458 @@
         <v>20000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="1">
         <v>150089</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
       <c r="E15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
         <v>100</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
         <v>1000</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
         <v>1000</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
         <v>30000</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
         <v>100</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
         <v>500</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
         <v>1000</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
         <v>10000</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
         <v>10</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <v>10000</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <v>100</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
         <v>1000</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
         <v>10000</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="1">
-        <v>150089</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="1">
+        <v>150089</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
         <v>20000</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29"/>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30"/>
@@ -1883,13 +2021,22 @@
     <row r="44" spans="2:2">
       <c r="B44"/>
     </row>
+    <row r="45" spans="2:2">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46"/>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28:C50">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30:C52">
       <formula1>"经纬度,墨卡托"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F3 G3 F4:G4 F5:G5 F6:G6 F7:G7 F8:G8 F9:G9 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F19:G19 F20:G20 F21:G21 F22:G22 F23:G23 F24:G24 F25:G25 F26:G26 F27:G27 F10:G13 F28:G48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F3 G3 F4:G4 F5:G5 F6:G6 F7:G7 F8:G8 F9:G9 F10:G10 F11:G11 F16:G16 F17:G17 F18:G18 F19:G19 F20:G20 F21:G21 F22:G22 F23:G23 F24:G24 F25:G25 F26:G26 F27:G27 F28:G28 F29:G29 F12:G15 F30:G50">
       <formula1>"欧式距离,Haversine "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L12 L13:L29 L30:L39">
+      <formula1>"读入点则计算参数,调用incdbscan才计算参数,固定参数"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/结果记录与备注.xlsx
+++ b/result/结果记录与备注.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="133">
   <si>
     <t>版本8，清晰定义坐标系</t>
   </si>
@@ -76,43 +76,64 @@
     <t>Web墨卡托</t>
   </si>
   <si>
+    <t>自适应（10000包围盒）距离最大差值</t>
+  </si>
+  <si>
+    <t>欧式距离</t>
+  </si>
+  <si>
+    <t>43s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\同时输出JWD和MKTutm_ec_ec_8_new20180401_0407_cleanmin10env10000.csv</t>
+  </si>
+  <si>
+    <t>调用incdbscan才计算参数</t>
+  </si>
+  <si>
+    <t>第八版</t>
+  </si>
+  <si>
+    <t>自适应（10000包围盒）距离增长率的最大值来度量</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\距离增长率最大值utm_ec_ec_8_new20180401_0407_cleanmin10env10000.csv</t>
+  </si>
+  <si>
+    <t>自适应（10000包围盒）距离增长率的增长率来度量</t>
+  </si>
+  <si>
+    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\距离增长率的增长率utm_ec_ec_8_new20180401_0407_cleanmin10env10000.csv</t>
+  </si>
+  <si>
+    <t>版本6</t>
+  </si>
+  <si>
+    <t>20180430-8-16</t>
+  </si>
+  <si>
+    <t>墨卡托</t>
+  </si>
+  <si>
+    <t>自适应（20000包围盒）</t>
+  </si>
+  <si>
+    <t>0m3s</t>
+  </si>
+  <si>
+    <t>20180401-0407</t>
+  </si>
+  <si>
+    <t>0m38s</t>
+  </si>
+  <si>
+    <t>changjiang(0.4°x0.6°)</t>
+  </si>
+  <si>
     <t>自适应（10000包围盒）</t>
-  </si>
-  <si>
-    <t>欧式距离</t>
-  </si>
-  <si>
-    <t>D:\1HZA\YJSBYSJ\ClusterResult\newBohai\201804\20180401-0407\同时输出JWD和MKTutm_ec_ec_8_new20180401_0407_cleanmin10env10000.csv</t>
-  </si>
-  <si>
-    <t>调用incdbscan才计算参数</t>
-  </si>
-  <si>
-    <t>第八版</t>
-  </si>
-  <si>
-    <t>版本6</t>
-  </si>
-  <si>
-    <t>20180430-8-16</t>
-  </si>
-  <si>
-    <t>墨卡托</t>
-  </si>
-  <si>
-    <t>自适应（20000包围盒）</t>
-  </si>
-  <si>
-    <t>0m3s</t>
-  </si>
-  <si>
-    <t>20180401-0407</t>
-  </si>
-  <si>
-    <t>0m38s</t>
-  </si>
-  <si>
-    <t>changjiang(0.4°x0.6°)</t>
   </si>
   <si>
     <t>3m54s</t>
@@ -1427,7 +1448,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1436,7 +1457,7 @@
     <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="3" customWidth="1"/>
     <col min="6" max="7" width="15.75" style="3" customWidth="1"/>
     <col min="8" max="9" width="7.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
@@ -1530,27 +1551,99 @@
       <c r="I4" s="3">
         <v>96716</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3">
+        <v>35952</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1806885</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3">
+        <v>38814</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="12:13">
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="13:13">
       <c r="M6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1558,17 +1651,17 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7">
       <formula1>"UTM51N墨卡托,经纬度,Web墨卡托"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3 F4:G4 F5:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3 F4:G4 F5:G5 F6:G6 F7:G7 F8:G10">
       <formula1>"欧式距离,Haversine "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L5 L6">
+      <formula1>"读入点则计算参数,调用incdbscan才计算参数,固定参数"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C12">
       <formula1>"经纬度,墨卡托"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5">
-      <formula1>"读入点则计算参数,调用incdbscan才计算参数,固定参数"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,7 +1696,7 @@
   <sheetData>
     <row r="1" ht="35.25" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1660,19 +1753,19 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>150089</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -1687,27 +1780,27 @@
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>1806885</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -1722,27 +1815,27 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5">
         <v>4183696</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>16</v>
@@ -1757,28 +1850,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>26765</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
@@ -1793,28 +1886,28 @@
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
         <v>72396</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>16</v>
@@ -1829,28 +1922,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5">
         <v>150089</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
@@ -1865,28 +1958,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5">
         <v>338200</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>16</v>
@@ -1901,22 +1994,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9">
         <v>338200</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9">
         <v>4</v>
@@ -1935,22 +2028,22 @@
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9">
         <v>338200</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9">
         <v>10</v>
@@ -1969,22 +2062,22 @@
         <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B12" s="9">
         <v>338200</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9">
         <v>10</v>
@@ -2003,22 +2096,22 @@
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3">
         <v>4183696</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2039,27 +2132,27 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3">
         <v>4183696</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -2074,27 +2167,27 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
         <v>150089</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
@@ -2109,27 +2202,27 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" s="8" customFormat="1" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B16" s="10">
         <v>150089</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10">
         <v>4</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>16</v>
@@ -2144,22 +2237,22 @@
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" spans="1:12">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B17" s="10">
         <v>150089</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10">
         <v>10</v>
@@ -2178,22 +2271,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" spans="1:12">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="10">
         <v>150089</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10">
         <v>10</v>
@@ -2212,24 +2305,24 @@
         <v>16</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:12">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B19" s="10">
         <v>150089</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D19" s="10">
         <v>10</v>
@@ -2239,7 +2332,7 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H19" s="10">
         <v>0</v>
@@ -2248,11 +2341,11 @@
         <v>0</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2263,7 +2356,7 @@
         <v>1806885</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3">
         <v>10</v>
@@ -2281,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2295,7 +2388,7 @@
         <v>1806885</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3">
         <v>10</v>
@@ -2313,16 +2406,16 @@
         <v>244621</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2333,13 +2426,13 @@
         <v>1806885</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3">
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>16</v>
@@ -2354,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2371,7 +2464,7 @@
         <v>1806885</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D26" s="11">
         <v>10</v>
@@ -2390,16 +2483,16 @@
         <v>4876</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2410,7 +2503,7 @@
         <v>1806885</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D27" s="11">
         <v>10</v>
@@ -2420,7 +2513,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
@@ -2429,14 +2522,14 @@
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2447,7 +2540,7 @@
         <v>1806885</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D28" s="11">
         <v>10</v>
@@ -2457,7 +2550,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H28" s="11">
         <v>0</v>
@@ -2466,14 +2559,14 @@
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2484,7 +2577,7 @@
         <v>1806885</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D29" s="11">
         <v>10</v>
@@ -2503,14 +2596,14 @@
         <v>0</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2521,7 +2614,7 @@
         <v>1806885</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11">
         <v>10</v>
@@ -2540,14 +2633,14 @@
         <v>0</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2558,7 +2651,7 @@
         <v>1806885</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D31" s="11">
         <v>10</v>
@@ -2577,14 +2670,14 @@
         <v>0</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2595,7 +2688,7 @@
         <v>1806885</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D32" s="11">
         <v>10</v>
@@ -2614,14 +2707,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2632,7 +2725,7 @@
         <v>1806885</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33" s="11">
         <v>10</v>
@@ -2651,16 +2744,16 @@
         <v>67910</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="13:13">
@@ -2674,13 +2767,13 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3">
         <v>150089</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3">
         <v>4</v>
@@ -2698,27 +2791,27 @@
         <v>164</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L37" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
         <v>26765</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D38" s="3">
         <v>10</v>
@@ -2736,24 +2829,24 @@
         <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B39" s="3">
         <v>26765</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
@@ -2771,16 +2864,16 @@
         <v>24</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2791,7 +2884,7 @@
         <v>1806885</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D40" s="3">
         <v>4</v>
@@ -2809,27 +2902,27 @@
         <v>69589</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3">
         <v>338200</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D41" s="3">
         <v>4</v>
@@ -2847,27 +2940,27 @@
         <v>20269</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3">
         <v>812899</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3">
         <v>4</v>
@@ -2885,16 +2978,16 @@
         <v>42229</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="12:13">
@@ -2903,19 +2996,19 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3">
         <v>1806885</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D44" s="3">
         <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
@@ -2930,30 +3023,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3">
         <v>1806885</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D45" s="3">
         <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>16</v>
@@ -2968,30 +3061,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B46" s="3">
         <v>1806885</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3">
         <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -3006,30 +3099,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B47" s="3">
         <v>1806885</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
@@ -3044,36 +3137,36 @@
         <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3">
         <v>1806885</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D48" s="3">
         <v>4</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -3082,39 +3175,39 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3">
         <v>1806885</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -3123,39 +3216,39 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M49" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B50" s="3">
         <v>1806885</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3">
         <v>4</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -3164,112 +3257,112 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M50" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B51" s="3">
         <v>1806885</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H51" s="3">
         <v>5</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B52" s="3">
         <v>1806885</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D52" s="3">
         <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3">
         <v>1806885</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D53" s="3">
         <v>4</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M53" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3286,19 +3379,19 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>150089</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D56" s="3">
         <v>4</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>16</v>
@@ -3313,33 +3406,33 @@
         <v>102</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3">
         <v>150089</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
@@ -3354,16 +3447,16 @@
         <v>102</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3380,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
@@ -3395,16 +3488,16 @@
         <v>281771</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3415,13 +3508,13 @@
         <v>1806885</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3">
         <v>4</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
@@ -3436,16 +3529,16 @@
         <v>372082</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3462,7 +3555,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
@@ -3477,16 +3570,16 @@
         <v>96716</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M60" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3503,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
@@ -3512,17 +3605,17 @@
         <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3627,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"经纬度,Web墨卡托"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 G3 F4 G4 F5:G5 F6 G6 F7 G7 F8:G8 F9 G9 F10:G10 F11:G11 F12 G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F19:G19 F23:G23 F24:G24 F25:G25 F26:G26 G27 F28:G28 F29:G29 F30:G30 F31:G31 F32:G32 F33:G33 F37:G37 F38:G38 F39:G39 F40:G40 F41:G41 F42 G42 F46 G46 F47 G47 F48 G48 F49 G49 F50 G50 F51 G51 F52 G52 F53 G53 F54:G54 F56:G56 F57:G57 F60:G60 F61:G61 F62:G62 F43:F45 G43:G45 F21:G22 F34:G36 F58:G59 F63:G70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 G3 F4 G4 F5:G5 F6 G6 F7 G7 F8:G8 F9 G9 F10:G10 F11:G11 F12 G12 F13:G13 F14:G14 F15:G15 F16:G16 F17:G17 F18:G18 F19:G19 F23:G23 F24:G24 F25:G25 F26:G26 G27 F28:G28 F29:G29 F30:G30 F31:G31 F32:G32 F33:G33 F37:G37 F38:G38 F39:G39 F40:G40 F41:G41 F42 G42 F46 G46 F47 G47 F48 G48 F49 G49 F50 G50 F51 G51 F52 G52 F53 G53 F54:G54 F56:G56 F57:G57 F60:G60 F61:G61 F62:G62 F43:F45 G43:G45 F58:G59 F21:G22 F34:G36 F63:G70">
       <formula1>"欧式距离,Haversine "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C37 C38 C39 C40 C41 C42 C43 C34:C36 C68:C72">
@@ -3581,7 +3674,7 @@
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3635,25 +3728,25 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5">
         <v>150089</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
@@ -3662,36 +3755,36 @@
         <v>4</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>150089</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -3700,30 +3793,30 @@
         <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>150089</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -3738,27 +3831,27 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>150089</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>16</v>
@@ -3773,27 +3866,27 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
         <v>150089</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -3808,30 +3901,30 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3">
         <v>150089</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3843,36 +3936,36 @@
         <v>236</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>150089</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -3881,33 +3974,33 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6">
         <v>1806885</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
@@ -3916,36 +4009,36 @@
         <v>5908</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3">
         <v>1806885</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3954,36 +4047,36 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
         <v>1806885</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3992,36 +4085,36 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:12">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <v>150089</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D14" s="5">
         <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -4030,34 +4123,34 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:12">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5">
         <v>150089</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" s="5">
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -4066,34 +4159,34 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
         <v>150089</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -4102,27 +4195,27 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>150089</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>16</v>
@@ -4137,27 +4230,27 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>150089</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
@@ -4172,27 +4265,27 @@
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
         <v>150089</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>16</v>
@@ -4207,27 +4300,27 @@
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
         <v>1806885</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
@@ -4242,33 +4335,33 @@
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3">
         <v>150089</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4277,24 +4370,24 @@
         <v>884</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3">
         <v>150089</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
@@ -4312,24 +4405,24 @@
         <v>414</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>150089</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
@@ -4347,24 +4440,24 @@
         <v>164</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3">
         <v>150089</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
@@ -4382,24 +4475,24 @@
         <v>164</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>150089</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
@@ -4408,7 +4501,7 @@
         <v>10000</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -4417,21 +4510,21 @@
         <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>150089</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
@@ -4440,7 +4533,7 @@
         <v>20000</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -4449,21 +4542,21 @@
         <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>150089</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
@@ -4472,7 +4565,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -4481,21 +4574,21 @@
         <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>150089</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3">
         <v>4</v>
@@ -4504,7 +4597,7 @@
         <v>1000</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -4513,21 +4606,21 @@
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L30" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3">
         <v>150089</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
@@ -4536,7 +4629,7 @@
         <v>1000</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -4545,21 +4638,21 @@
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3">
         <v>150089</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
@@ -4568,7 +4661,7 @@
         <v>30000</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -4577,21 +4670,21 @@
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3">
         <v>150089</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
@@ -4609,21 +4702,21 @@
         <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3">
         <v>150089</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
@@ -4641,21 +4734,21 @@
         <v>0</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L34" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3">
         <v>150089</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
@@ -4673,21 +4766,21 @@
         <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L35" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3">
         <v>150089</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
@@ -4705,21 +4798,21 @@
         <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L36" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B37" s="3">
         <v>150089</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3">
         <v>10</v>
@@ -4737,21 +4830,21 @@
         <v>0</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L37" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B38" s="3">
         <v>150089</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3">
         <v>4</v>
@@ -4760,7 +4853,7 @@
         <v>100</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -4769,21 +4862,21 @@
         <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3">
         <v>150089</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
@@ -4792,7 +4885,7 @@
         <v>1000</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -4801,21 +4894,21 @@
         <v>0</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3">
         <v>150089</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3">
         <v>4</v>
@@ -4824,7 +4917,7 @@
         <v>10000</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -4833,21 +4926,21 @@
         <v>0</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3">
         <v>150089</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3">
         <v>4</v>
@@ -4856,7 +4949,7 @@
         <v>20000</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -4865,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:2">
